--- a/results.xlsx
+++ b/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steve\Google Drive\Tufts\comp\150csb\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\CompareEcoli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3CBBCAF-5945-4409-97CD-4C8F22AE6BB1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{02557940-CE14-4E02-B82F-655D6A67D7A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27975" windowHeight="16440" xr2:uid="{A2C6FC08-3D6E-4263-A2E6-0840FE1EDEB2}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="71">
   <si>
     <t>'e_coli_core'</t>
   </si>
@@ -199,16 +199,69 @@
   </si>
   <si>
     <t>Max Biomass</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Outlier</t>
+  </si>
+  <si>
+    <t>1st</t>
+  </si>
+  <si>
+    <t>2nd</t>
+  </si>
+  <si>
+    <t>3rd</t>
+  </si>
+  <si>
+    <t>4th</t>
+  </si>
+  <si>
+    <t>5th</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Escherichia coli str. K-12 substr. MG1655</t>
+  </si>
+  <si>
+    <t>Escherichia coli str. K-12 substr. DH10B</t>
+  </si>
+  <si>
+    <t>Escherichia coli IAI1 - commensal https://doi.org/10.1371/journal.pgen.1000344</t>
+  </si>
+  <si>
+    <t>E. coli W - benign lab use https://doi.org/10.1111/j.1574-6968.2006.00594.x</t>
+  </si>
+  <si>
+    <t>Escherichia coli IAI39 - Kidney Infection https://doi.org/10.1371/journal.pgen.1000344</t>
+  </si>
+  <si>
+    <t>Escherichia coli CFT073 - Kidney Infection https://doi.org/10.1371/journal.pgen.1000344</t>
+  </si>
+  <si>
+    <t>Escherichia coli UMN026 - Bladder Infection https://doi.org/10.1371/journal.pgen.1000344</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -267,10 +320,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -279,8 +333,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -593,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9B7A145-6A0B-48CB-A55F-EF8621890F32}">
-  <dimension ref="A1:D53"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,9 +662,11 @@
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="30.140625" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -620,8 +679,11 @@
       <c r="D1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -634,8 +696,11 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -648,8 +713,14 @@
       <c r="D3" s="5">
         <v>0.24268778725870599</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -662,8 +733,14 @@
       <c r="D4" s="1">
         <v>0.24268778730148899</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -676,8 +753,11 @@
       <c r="D5">
         <v>0.23759603693072701</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G5" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -690,8 +770,11 @@
       <c r="D6">
         <v>0.234186333206054</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -704,8 +787,11 @@
       <c r="D7">
         <v>0.23759603693078801</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -718,8 +804,11 @@
       <c r="D8">
         <v>0.23759603693078299</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G8" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -733,7 +822,7 @@
         <v>0.23759603693088599</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -747,7 +836,7 @@
         <v>0.237596036930839</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -761,7 +850,7 @@
         <v>0.23759603693094</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -775,7 +864,7 @@
         <v>0.234186333206133</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -789,7 +878,7 @@
         <v>0.23759603693084899</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -802,8 +891,11 @@
       <c r="D14" s="4">
         <v>0.251701243993668</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -817,7 +909,7 @@
         <v>0.23759603693068199</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -831,7 +923,7 @@
         <v>0.23418633320613599</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -845,7 +937,7 @@
         <v>0.23759592414651801</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -859,7 +951,7 @@
         <v>0.23759603693081599</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -872,8 +964,11 @@
       <c r="D19" s="6">
         <v>8.6599860335194592</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -886,8 +981,11 @@
       <c r="D20" s="7">
         <v>0.237596799153311</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -901,7 +999,7 @@
         <v>0.23759603693078599</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -915,7 +1013,7 @@
         <v>0.23759603693085499</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -929,7 +1027,7 @@
         <v>0.23759603693074999</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -943,7 +1041,7 @@
         <v>0.23759603693084</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -957,7 +1055,7 @@
         <v>0.23759603693085099</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -971,7 +1069,7 @@
         <v>0.23759603693089401</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -985,7 +1083,7 @@
         <v>0.23759603693078299</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -999,7 +1097,7 @@
         <v>0.23759603693081099</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1013,7 +1111,7 @@
         <v>0.23759603693086301</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1027,7 +1125,7 @@
         <v>0.23759603693092801</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1040,8 +1138,11 @@
       <c r="D31" s="3">
         <v>0.23759676896415</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1279,7 +1380,7 @@
         <v>0.23759603693081199</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1293,7 +1394,7 @@
         <v>0.23759603693068401</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1306,8 +1407,11 @@
       <c r="D50" s="3">
         <v>0.23759603693072701</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1321,7 +1425,7 @@
         <v>0.237596036930833</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1335,7 +1439,7 @@
         <v>0.237596036930809</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1348,8 +1452,13 @@
       <c r="D53" s="2">
         <v>0.26958937739900601</v>
       </c>
+      <c r="E53" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="F53" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>